--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_30_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_30_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2207.004263769144</v>
+        <v>439193.84849006</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2207.004263769144</v>
+        <v>439193.84849006</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85865.93005350803</v>
+        <v>5871365.855805993</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85865.93005350803</v>
+        <v>5871365.855805993</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1114619410.369119</v>
+        <v>43554634.37950374</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13851.60928316061</v>
+        <v>1322636.218219351</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24764.68384630939</v>
+        <v>2136068.107280132</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35670.19140343643</v>
+        <v>2949499.996340915</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46806.86275900752</v>
+        <v>3762038.599659689</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57943.67901840359</v>
+        <v>4574606.038839636</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>69080.49527779962</v>
+        <v>5387173.478019581</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>80217.31153719571</v>
+        <v>6199740.917199524</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>91354.12779659175</v>
+        <v>7012308.356379468</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>102584.8582283301</v>
+        <v>7779129.786702754</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>113904.5346653344</v>
+        <v>8563651.472073954</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>125224.2111023386</v>
+        <v>9348173.157445157</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>136543.8875393429</v>
+        <v>10132694.84281636</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>147863.5639763471</v>
+        <v>10917216.52818757</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>159192.6932159571</v>
+        <v>11700318.14277518</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>170524.5478232054</v>
+        <v>12483962.10552274</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>177</v>
@@ -27055,7 +27055,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27064,7 +27064,7 @@
         <v>153</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1372</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
